--- a/newstock.xlsx
+++ b/newstock.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,7 +460,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2021-06-29 14:02</t>
+          <t>2021-06-29 19:24</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
@@ -472,7 +472,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2021-06-29 14:03</t>
+          <t>2021-06-29 19:24</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
@@ -484,10 +484,46 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2021-06-29 14:04</t>
+          <t>2021-06-29 19:24</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>2021-06-29 19:25</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>2021-06-29 19:25</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>2021-06-29 19:25</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>재고 X</t>
         </is>
@@ -504,7 +540,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,7 +571,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>2021-06-29 14:02</t>
+          <t>2021-06-29 19:24</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -547,7 +583,7 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>2021-06-29 14:03</t>
+          <t>2021-06-29 19:24</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -559,10 +595,46 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>2021-06-29 14:04</t>
+          <t>2021-06-29 19:24</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>2021-06-29 19:25</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>2021-06-29 19:25</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>2021-06-29 19:25</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>재고 O</t>
         </is>
@@ -579,7 +651,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -610,7 +682,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>2021-06-29 14:02</t>
+          <t>2021-06-29 19:24</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -622,7 +694,7 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>2021-06-29 14:03</t>
+          <t>2021-06-29 19:24</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -634,10 +706,46 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>2021-06-29 14:04</t>
+          <t>2021-06-29 19:25</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>2021-06-29 19:25</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>2021-06-29 19:25</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>2021-06-29 19:25</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>재고 O</t>
         </is>

--- a/newstock.xlsx
+++ b/newstock.xlsx
@@ -7,9 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,6 +436,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="101" customWidth="1" min="2" max="2"/>
+    <col width="87" customWidth="1" min="3" max="3"/>
+    <col width="63" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -448,19 +449,24 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>재고</t>
+          <t>California Gold Nutrition, Omega 800 제약 등급 피쉬 오일, EPA/DHA 80%, 트라이글리세라이드 형태, 1,000mg, 피쉬 젤라틴 소프트젤 90정</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>California Gold Nutrition, Omega 800 제약 등급 피쉬 오일, EPA/DHA 80%, 트라이글리세라이드 형태, 1,000mg, 피쉬 젤라틴 소프트젤 90정</t>
+          <t>California Gold Nutrition, Omega 800 제약 등급 피쉬 오일, EPA/DHA 80%, 1,000mg, 피쉬 젤라틴 소프트젤 30정</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>California Gold Nutrition, LactoBif 프로바이오틱, 300억 CFU, 베지 캡슐 60정</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2021-06-29 19:24</t>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2021-07-04 15:47</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
@@ -468,11 +474,21 @@
           <t>재고 X</t>
         </is>
       </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2021-06-29 19:24</t>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2021-07-04 15:47</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
@@ -480,11 +496,21 @@
           <t>재고 X</t>
         </is>
       </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2021-06-29 19:24</t>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2021-07-04 15:47</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
@@ -492,11 +518,21 @@
           <t>재고 X</t>
         </is>
       </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>2021-06-29 19:25</t>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2021-07-04 15:47</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
@@ -504,11 +540,21 @@
           <t>재고 X</t>
         </is>
       </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2021-06-29 19:25</t>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2021-07-04 15:47</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
@@ -516,11 +562,21 @@
           <t>재고 X</t>
         </is>
       </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2021-06-29 19:25</t>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2021-07-04 15:47</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
@@ -528,224 +584,1090 @@
           <t>재고 X</t>
         </is>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
-  <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>날짜/시간</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>재고</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>California Gold Nutrition, Omega 800 제약 등급 피쉬 오일, EPA/DHA 80%, 1,000mg, 피쉬 젤라틴 소프트젤 30정</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>2021-06-29 19:24</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>재고 O</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>2021-06-29 19:24</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>재고 O</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>2021-06-29 19:24</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>재고 O</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>2021-06-29 19:25</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>재고 O</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>2021-06-29 19:25</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>재고 O</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>2021-06-29 19:25</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>재고 O</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
-  <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>날짜/시간</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>재고</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>California Gold Nutrition, LactoBif 프로바이오틱, 300억 CFU, 베지 캡슐 60정</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>2021-06-29 19:24</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>재고 O</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>2021-06-29 19:24</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>재고 O</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>2021-06-29 19:25</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>재고 O</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>2021-06-29 19:25</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>재고 O</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>2021-06-29 19:25</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>재고 O</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>2021-06-29 19:25</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2021-07-04 15:47</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2021-07-04 15:47</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2021-07-04 15:47</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2021-07-04 15:48</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2021-07-04 15:48</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2021-07-04 15:48</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2021-07-04 15:48</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2021-07-04 15:48</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2021-07-04 15:48</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2021-07-04 15:48</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2021-07-04 15:48</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2021-07-04 15:48</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="C19" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2021-07-04 15:48</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2021-07-04 15:48</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="C21" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2021-07-04 15:48</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="C22" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2021-07-04 15:48</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="C23" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2021-07-04 15:48</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="C24" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2021-07-04 15:48</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="C25" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2021-07-04 15:48</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="C26" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2021-07-04 15:48</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="C27" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2021-07-04 15:48</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="C28" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2021-07-04 15:48</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="C29" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2021-07-04 15:48</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="C30" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2021-07-04 15:48</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="C31" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2021-07-04 15:48</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="C32" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2021-07-04 15:48</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="C33" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2021-07-04 15:49</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="C34" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2021-07-04 15:49</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="C35" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2021-07-04 15:49</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="C36" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2021-07-04 15:49</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="C37" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2021-07-04 15:49</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="C38" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2021-07-04 15:49</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="C39" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2021-07-04 15:49</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="C40" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2021-07-04 15:49</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="C41" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2021-07-04 15:49</t>
+        </is>
+      </c>
+      <c r="B42" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="C42" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2021-07-04 15:49</t>
+        </is>
+      </c>
+      <c r="B43" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="C43" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2021-07-04 15:49</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="C44" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2021-07-04 15:49</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="C45" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2021-07-04 15:49</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="C46" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2021-07-04 15:49</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="C47" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2021-07-04 15:49</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="C48" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2021-07-04 15:49</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="C49" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2021-07-04 15:49</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="C50" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2021-07-04 15:49</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="C51" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2021-07-04 15:49</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="C52" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2021-07-04 15:49</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="C53" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2021-07-04 15:49</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="C54" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2021-07-04 15:49</t>
+        </is>
+      </c>
+      <c r="B55" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="C55" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2021-07-04 15:49</t>
+        </is>
+      </c>
+      <c r="B56" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="C56" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
         <is>
           <t>재고 O</t>
         </is>

--- a/newstock.xlsx
+++ b/newstock.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,7 +466,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2021-07-04 15:47</t>
+          <t>2021-07-09 23:56</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
@@ -474,9 +474,9 @@
           <t>재고 X</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>재고 X</t>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
@@ -488,7 +488,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2021-07-04 15:47</t>
+          <t>2021-07-09 23:56</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
@@ -496,9 +496,9 @@
           <t>재고 X</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>재고 X</t>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
@@ -510,7 +510,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2021-07-04 15:47</t>
+          <t>2021-07-09 23:56</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
@@ -518,9 +518,9 @@
           <t>재고 X</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>재고 X</t>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2021-07-04 15:47</t>
+          <t>2021-07-09 23:56</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
@@ -540,9 +540,9 @@
           <t>재고 X</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>재고 X</t>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -554,7 +554,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2021-07-04 15:47</t>
+          <t>2021-07-09 23:56</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
@@ -562,9 +562,9 @@
           <t>재고 X</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>재고 X</t>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -576,7 +576,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2021-07-04 15:47</t>
+          <t>2021-07-09 23:56</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
@@ -584,9 +584,9 @@
           <t>재고 X</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>재고 X</t>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -598,7 +598,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2021-07-04 15:47</t>
+          <t>2021-07-09 23:56</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -606,9 +606,9 @@
           <t>재고 X</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>재고 X</t>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -620,7 +620,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2021-07-04 15:47</t>
+          <t>2021-07-09 23:56</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
@@ -628,9 +628,9 @@
           <t>재고 X</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>재고 X</t>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -642,7 +642,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2021-07-04 15:47</t>
+          <t>2021-07-09 23:56</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
@@ -650,9 +650,9 @@
           <t>재고 X</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t>재고 X</t>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -664,7 +664,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2021-07-04 15:48</t>
+          <t>2021-07-09 23:56</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
@@ -672,9 +672,9 @@
           <t>재고 X</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t>재고 X</t>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -686,7 +686,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2021-07-04 15:48</t>
+          <t>2021-07-09 23:56</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
@@ -694,9 +694,9 @@
           <t>재고 X</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t>재고 X</t>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -708,7 +708,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2021-07-04 15:48</t>
+          <t>2021-07-09 23:56</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
@@ -716,9 +716,9 @@
           <t>재고 X</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t>재고 X</t>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -730,7 +730,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2021-07-04 15:48</t>
+          <t>2021-07-09 23:57</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
@@ -738,9 +738,9 @@
           <t>재고 X</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t>재고 X</t>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -752,7 +752,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2021-07-04 15:48</t>
+          <t>2021-07-09 23:57</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
@@ -760,9 +760,9 @@
           <t>재고 X</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t>재고 X</t>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2021-07-04 15:48</t>
+          <t>2021-07-09 23:57</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
@@ -782,9 +782,9 @@
           <t>재고 X</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
-        <is>
-          <t>재고 X</t>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2021-07-04 15:48</t>
+          <t>2021-07-09 23:57</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
@@ -804,9 +804,9 @@
           <t>재고 X</t>
         </is>
       </c>
-      <c r="C17" s="1" t="inlineStr">
-        <is>
-          <t>재고 X</t>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -818,7 +818,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2021-07-04 15:48</t>
+          <t>2021-07-09 23:57</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
@@ -826,9 +826,9 @@
           <t>재고 X</t>
         </is>
       </c>
-      <c r="C18" s="1" t="inlineStr">
-        <is>
-          <t>재고 X</t>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -840,7 +840,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2021-07-04 15:48</t>
+          <t>2021-07-09 23:57</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
@@ -848,9 +848,9 @@
           <t>재고 X</t>
         </is>
       </c>
-      <c r="C19" s="1" t="inlineStr">
-        <is>
-          <t>재고 X</t>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -862,7 +862,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2021-07-04 15:48</t>
+          <t>2021-07-09 23:57</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
@@ -870,9 +870,9 @@
           <t>재고 X</t>
         </is>
       </c>
-      <c r="C20" s="1" t="inlineStr">
-        <is>
-          <t>재고 X</t>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -884,7 +884,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2021-07-04 15:48</t>
+          <t>2021-07-09 23:57</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
@@ -892,9 +892,9 @@
           <t>재고 X</t>
         </is>
       </c>
-      <c r="C21" s="1" t="inlineStr">
-        <is>
-          <t>재고 X</t>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
@@ -906,7 +906,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2021-07-04 15:48</t>
+          <t>2021-07-09 23:57</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
@@ -914,9 +914,9 @@
           <t>재고 X</t>
         </is>
       </c>
-      <c r="C22" s="1" t="inlineStr">
-        <is>
-          <t>재고 X</t>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2021-07-04 15:48</t>
+          <t>2021-07-09 23:57</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
@@ -936,9 +936,9 @@
           <t>재고 X</t>
         </is>
       </c>
-      <c r="C23" s="1" t="inlineStr">
-        <is>
-          <t>재고 X</t>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -950,7 +950,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2021-07-04 15:48</t>
+          <t>2021-07-09 23:57</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
@@ -958,9 +958,9 @@
           <t>재고 X</t>
         </is>
       </c>
-      <c r="C24" s="1" t="inlineStr">
-        <is>
-          <t>재고 X</t>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
@@ -972,7 +972,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2021-07-04 15:48</t>
+          <t>2021-07-09 23:57</t>
         </is>
       </c>
       <c r="B25" s="1" t="inlineStr">
@@ -980,9 +980,9 @@
           <t>재고 X</t>
         </is>
       </c>
-      <c r="C25" s="1" t="inlineStr">
-        <is>
-          <t>재고 X</t>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2021-07-04 15:48</t>
+          <t>2021-07-09 23:57</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
@@ -1002,9 +1002,9 @@
           <t>재고 X</t>
         </is>
       </c>
-      <c r="C26" s="1" t="inlineStr">
-        <is>
-          <t>재고 X</t>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
@@ -1016,7 +1016,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2021-07-04 15:48</t>
+          <t>2021-07-09 23:57</t>
         </is>
       </c>
       <c r="B27" s="1" t="inlineStr">
@@ -1024,9 +1024,9 @@
           <t>재고 X</t>
         </is>
       </c>
-      <c r="C27" s="1" t="inlineStr">
-        <is>
-          <t>재고 X</t>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
@@ -1038,7 +1038,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2021-07-04 15:48</t>
+          <t>2021-07-09 23:57</t>
         </is>
       </c>
       <c r="B28" s="1" t="inlineStr">
@@ -1046,9 +1046,9 @@
           <t>재고 X</t>
         </is>
       </c>
-      <c r="C28" s="1" t="inlineStr">
-        <is>
-          <t>재고 X</t>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2021-07-04 15:48</t>
+          <t>2021-07-09 23:57</t>
         </is>
       </c>
       <c r="B29" s="1" t="inlineStr">
@@ -1068,9 +1068,9 @@
           <t>재고 X</t>
         </is>
       </c>
-      <c r="C29" s="1" t="inlineStr">
-        <is>
-          <t>재고 X</t>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
@@ -1082,7 +1082,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2021-07-04 15:48</t>
+          <t>2021-07-09 23:58</t>
         </is>
       </c>
       <c r="B30" s="1" t="inlineStr">
@@ -1090,9 +1090,9 @@
           <t>재고 X</t>
         </is>
       </c>
-      <c r="C30" s="1" t="inlineStr">
-        <is>
-          <t>재고 X</t>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2021-07-04 15:48</t>
+          <t>2021-07-09 23:58</t>
         </is>
       </c>
       <c r="B31" s="1" t="inlineStr">
@@ -1112,9 +1112,9 @@
           <t>재고 X</t>
         </is>
       </c>
-      <c r="C31" s="1" t="inlineStr">
-        <is>
-          <t>재고 X</t>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
@@ -1126,7 +1126,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2021-07-04 15:48</t>
+          <t>2021-07-09 23:58</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
@@ -1134,9 +1134,9 @@
           <t>재고 X</t>
         </is>
       </c>
-      <c r="C32" s="1" t="inlineStr">
-        <is>
-          <t>재고 X</t>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
@@ -1148,7 +1148,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2021-07-04 15:48</t>
+          <t>2021-07-09 23:58</t>
         </is>
       </c>
       <c r="B33" s="1" t="inlineStr">
@@ -1156,9 +1156,9 @@
           <t>재고 X</t>
         </is>
       </c>
-      <c r="C33" s="1" t="inlineStr">
-        <is>
-          <t>재고 X</t>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
@@ -1170,7 +1170,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2021-07-04 15:49</t>
+          <t>2021-07-09 23:58</t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
@@ -1178,9 +1178,9 @@
           <t>재고 X</t>
         </is>
       </c>
-      <c r="C34" s="1" t="inlineStr">
-        <is>
-          <t>재고 X</t>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
@@ -1192,7 +1192,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2021-07-04 15:49</t>
+          <t>2021-07-09 23:58</t>
         </is>
       </c>
       <c r="B35" s="1" t="inlineStr">
@@ -1200,9 +1200,9 @@
           <t>재고 X</t>
         </is>
       </c>
-      <c r="C35" s="1" t="inlineStr">
-        <is>
-          <t>재고 X</t>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
@@ -1214,7 +1214,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2021-07-04 15:49</t>
+          <t>2021-07-09 23:58</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr">
@@ -1222,9 +1222,9 @@
           <t>재고 X</t>
         </is>
       </c>
-      <c r="C36" s="1" t="inlineStr">
-        <is>
-          <t>재고 X</t>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
@@ -1236,7 +1236,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2021-07-04 15:49</t>
+          <t>2021-07-09 23:58</t>
         </is>
       </c>
       <c r="B37" s="1" t="inlineStr">
@@ -1244,9 +1244,9 @@
           <t>재고 X</t>
         </is>
       </c>
-      <c r="C37" s="1" t="inlineStr">
-        <is>
-          <t>재고 X</t>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
@@ -1258,7 +1258,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2021-07-04 15:49</t>
+          <t>2021-07-09 23:58</t>
         </is>
       </c>
       <c r="B38" s="1" t="inlineStr">
@@ -1266,9 +1266,9 @@
           <t>재고 X</t>
         </is>
       </c>
-      <c r="C38" s="1" t="inlineStr">
-        <is>
-          <t>재고 X</t>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
@@ -1280,7 +1280,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2021-07-04 15:49</t>
+          <t>2021-07-09 23:58</t>
         </is>
       </c>
       <c r="B39" s="1" t="inlineStr">
@@ -1288,9 +1288,9 @@
           <t>재고 X</t>
         </is>
       </c>
-      <c r="C39" s="1" t="inlineStr">
-        <is>
-          <t>재고 X</t>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
@@ -1302,7 +1302,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2021-07-04 15:49</t>
+          <t>2021-07-09 23:58</t>
         </is>
       </c>
       <c r="B40" s="1" t="inlineStr">
@@ -1310,9 +1310,9 @@
           <t>재고 X</t>
         </is>
       </c>
-      <c r="C40" s="1" t="inlineStr">
-        <is>
-          <t>재고 X</t>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
@@ -1324,7 +1324,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2021-07-04 15:49</t>
+          <t>2021-07-09 23:58</t>
         </is>
       </c>
       <c r="B41" s="1" t="inlineStr">
@@ -1332,9 +1332,9 @@
           <t>재고 X</t>
         </is>
       </c>
-      <c r="C41" s="1" t="inlineStr">
-        <is>
-          <t>재고 X</t>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
@@ -1346,7 +1346,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2021-07-04 15:49</t>
+          <t>2021-07-09 23:58</t>
         </is>
       </c>
       <c r="B42" s="1" t="inlineStr">
@@ -1354,9 +1354,9 @@
           <t>재고 X</t>
         </is>
       </c>
-      <c r="C42" s="1" t="inlineStr">
-        <is>
-          <t>재고 X</t>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
@@ -1368,7 +1368,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2021-07-04 15:49</t>
+          <t>2021-07-09 23:58</t>
         </is>
       </c>
       <c r="B43" s="1" t="inlineStr">
@@ -1376,9 +1376,9 @@
           <t>재고 X</t>
         </is>
       </c>
-      <c r="C43" s="1" t="inlineStr">
-        <is>
-          <t>재고 X</t>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
@@ -1390,7 +1390,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2021-07-04 15:49</t>
+          <t>2021-07-09 23:58</t>
         </is>
       </c>
       <c r="B44" s="1" t="inlineStr">
@@ -1398,9 +1398,9 @@
           <t>재고 X</t>
         </is>
       </c>
-      <c r="C44" s="1" t="inlineStr">
-        <is>
-          <t>재고 X</t>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
@@ -1412,7 +1412,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2021-07-04 15:49</t>
+          <t>2021-07-09 23:58</t>
         </is>
       </c>
       <c r="B45" s="1" t="inlineStr">
@@ -1420,9 +1420,9 @@
           <t>재고 X</t>
         </is>
       </c>
-      <c r="C45" s="1" t="inlineStr">
-        <is>
-          <t>재고 X</t>
+      <c r="C45" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
@@ -1434,7 +1434,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2021-07-04 15:49</t>
+          <t>2021-07-09 23:58</t>
         </is>
       </c>
       <c r="B46" s="1" t="inlineStr">
@@ -1442,9 +1442,9 @@
           <t>재고 X</t>
         </is>
       </c>
-      <c r="C46" s="1" t="inlineStr">
-        <is>
-          <t>재고 X</t>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
@@ -1456,7 +1456,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2021-07-04 15:49</t>
+          <t>2021-07-09 23:59</t>
         </is>
       </c>
       <c r="B47" s="1" t="inlineStr">
@@ -1464,9 +1464,9 @@
           <t>재고 X</t>
         </is>
       </c>
-      <c r="C47" s="1" t="inlineStr">
-        <is>
-          <t>재고 X</t>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr">
@@ -1478,7 +1478,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2021-07-04 15:49</t>
+          <t>2021-07-09 23:59</t>
         </is>
       </c>
       <c r="B48" s="1" t="inlineStr">
@@ -1486,9 +1486,9 @@
           <t>재고 X</t>
         </is>
       </c>
-      <c r="C48" s="1" t="inlineStr">
-        <is>
-          <t>재고 X</t>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr">
@@ -1500,7 +1500,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2021-07-04 15:49</t>
+          <t>2021-07-09 23:59</t>
         </is>
       </c>
       <c r="B49" s="1" t="inlineStr">
@@ -1508,9 +1508,9 @@
           <t>재고 X</t>
         </is>
       </c>
-      <c r="C49" s="1" t="inlineStr">
-        <is>
-          <t>재고 X</t>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr">
@@ -1522,7 +1522,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2021-07-04 15:49</t>
+          <t>2021-07-09 23:59</t>
         </is>
       </c>
       <c r="B50" s="1" t="inlineStr">
@@ -1530,9 +1530,9 @@
           <t>재고 X</t>
         </is>
       </c>
-      <c r="C50" s="1" t="inlineStr">
-        <is>
-          <t>재고 X</t>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr">
@@ -1544,7 +1544,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2021-07-04 15:49</t>
+          <t>2021-07-09 23:59</t>
         </is>
       </c>
       <c r="B51" s="1" t="inlineStr">
@@ -1552,9 +1552,9 @@
           <t>재고 X</t>
         </is>
       </c>
-      <c r="C51" s="1" t="inlineStr">
-        <is>
-          <t>재고 X</t>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr">
@@ -1566,7 +1566,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2021-07-04 15:49</t>
+          <t>2021-07-09 23:59</t>
         </is>
       </c>
       <c r="B52" s="1" t="inlineStr">
@@ -1574,9 +1574,9 @@
           <t>재고 X</t>
         </is>
       </c>
-      <c r="C52" s="1" t="inlineStr">
-        <is>
-          <t>재고 X</t>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr">
@@ -1588,7 +1588,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2021-07-04 15:49</t>
+          <t>2021-07-09 23:59</t>
         </is>
       </c>
       <c r="B53" s="1" t="inlineStr">
@@ -1596,9 +1596,9 @@
           <t>재고 X</t>
         </is>
       </c>
-      <c r="C53" s="1" t="inlineStr">
-        <is>
-          <t>재고 X</t>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr">
@@ -1610,7 +1610,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2021-07-04 15:49</t>
+          <t>2021-07-09 23:59</t>
         </is>
       </c>
       <c r="B54" s="1" t="inlineStr">
@@ -1618,9 +1618,9 @@
           <t>재고 X</t>
         </is>
       </c>
-      <c r="C54" s="1" t="inlineStr">
-        <is>
-          <t>재고 X</t>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr">
@@ -1632,7 +1632,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2021-07-04 15:49</t>
+          <t>2021-07-09 23:59</t>
         </is>
       </c>
       <c r="B55" s="1" t="inlineStr">
@@ -1640,9 +1640,9 @@
           <t>재고 X</t>
         </is>
       </c>
-      <c r="C55" s="1" t="inlineStr">
-        <is>
-          <t>재고 X</t>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr">
@@ -1654,7 +1654,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2021-07-04 15:49</t>
+          <t>2021-07-09 23:59</t>
         </is>
       </c>
       <c r="B56" s="1" t="inlineStr">
@@ -1662,12 +1662,78 @@
           <t>재고 X</t>
         </is>
       </c>
-      <c r="C56" s="1" t="inlineStr">
-        <is>
-          <t>재고 X</t>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2021-07-09 23:59</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2021-07-09 23:59</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2021-07-09 23:59</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
         <is>
           <t>재고 O</t>
         </is>

--- a/newstock.xlsx
+++ b/newstock.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1739,6 +1739,380 @@
         </is>
       </c>
     </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2021-07-09 23:59</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2021-07-09 23:59</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="C61" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+      <c r="D61" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2021-07-09 23:59</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2021-07-10 00:00</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="C63" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2021-07-10 00:00</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2021-07-10 00:00</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="C65" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2021-07-10 00:00</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2021-07-10 00:00</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+      <c r="D67" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2021-07-10 00:00</t>
+        </is>
+      </c>
+      <c r="B68" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2021-07-10 00:00</t>
+        </is>
+      </c>
+      <c r="B69" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2021-07-10 00:00</t>
+        </is>
+      </c>
+      <c r="B70" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2021-07-10 00:00</t>
+        </is>
+      </c>
+      <c r="B71" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="C71" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+      <c r="D71" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2021-07-10 00:00</t>
+        </is>
+      </c>
+      <c r="B72" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2021-07-10 00:00</t>
+        </is>
+      </c>
+      <c r="B73" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="C73" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+      <c r="D73" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2021-07-10 00:00</t>
+        </is>
+      </c>
+      <c r="B74" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2021-07-10 00:00</t>
+        </is>
+      </c>
+      <c r="B75" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="C75" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+      <c r="D75" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2021-07-10 00:00</t>
+        </is>
+      </c>
+      <c r="B76" s="1" t="inlineStr">
+        <is>
+          <t>재고 X</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+      <c r="D76" s="2" t="inlineStr">
+        <is>
+          <t>재고 O</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
